--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:31:22+00:00</t>
+    <t>2024-12-26T15:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,7 +141,7 @@
     <t>equivalent</t>
   </si>
   <si>
-    <t>Dosage.timing.repeat.periodUnit</t>
+    <t>Dosage.timing.repeat</t>
   </si>
   <si>
     <t>Elément_posologie/Fréquence_structurée/Frq_durée</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:51:21+00:00</t>
+    <t>2024-12-27T09:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T09:52:33+00:00</t>
+    <t>2024-12-27T10:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -141,7 +141,7 @@
     <t>equivalent</t>
   </si>
   <si>
-    <t>Dosage.timing.repeat</t>
+    <t>Dosage.timing.repeat.periodUnit</t>
   </si>
   <si>
     <t>Elément_posologie/Fréquence_structurée/Frq_durée</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:08:00+00:00</t>
+    <t>2024-12-27T10:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -635,9 +635,7 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>38</v>
-      </c>
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>39</v>
@@ -648,9 +646,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>38</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>39</v>
@@ -661,9 +657,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>38</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>39</v>
@@ -674,9 +668,7 @@
       <c r="E6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>38</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>39</v>
@@ -687,9 +679,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>38</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>39</v>
@@ -700,9 +690,7 @@
       <c r="E8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
-        <v>38</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>39</v>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -14,12 +14,25 @@
     <sheet name="Mapping Table 4" r:id="rId8" sheetId="6"/>
     <sheet name="Mapping Table 5" r:id="rId9" sheetId="7"/>
     <sheet name="Mapping Table 6" r:id="rId10" sheetId="8"/>
+    <sheet name="Mapping Table 7" r:id="rId11" sheetId="9"/>
+    <sheet name="Mapping Table 8" r:id="rId12" sheetId="10"/>
+    <sheet name="Mapping Table 9" r:id="rId13" sheetId="11"/>
+    <sheet name="Mapping Table 10" r:id="rId14" sheetId="12"/>
+    <sheet name="Mapping Table 11" r:id="rId15" sheetId="13"/>
+    <sheet name="Mapping Table 12" r:id="rId16" sheetId="14"/>
+    <sheet name="Mapping Table 13" r:id="rId17" sheetId="15"/>
+    <sheet name="Mapping Table 14" r:id="rId18" sheetId="16"/>
+    <sheet name="Mapping Table 15" r:id="rId19" sheetId="17"/>
+    <sheet name="Mapping Table 16" r:id="rId20" sheetId="18"/>
+    <sheet name="Mapping Table 17" r:id="rId21" sheetId="19"/>
+    <sheet name="Mapping Table 18" r:id="rId22" sheetId="20"/>
+    <sheet name="Mapping Table 19" r:id="rId23" sheetId="21"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +76,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:41:44+00:00</t>
+    <t>2024-12-31T09:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -150,31 +163,64 @@
     <t>Dosage.timing.repeat.period</t>
   </si>
   <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_1_J</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_1_N</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_2</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_3</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_4</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_5</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_6</t>
+  </si>
+  <si>
     <t>Elément_posologie/Fréquence_structurée/Frq_multiplicité</t>
   </si>
   <si>
     <t>Dosage.timing.repeat.frequency</t>
   </si>
   <si>
-    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_1_J</t>
-  </si>
-  <si>
-    <t>Dosage.timing.repeat.dayOfWeek</t>
-  </si>
-  <si>
-    <t>Elément_posologie/Quantité/Nombre</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.doseQuantity.value</t>
-  </si>
-  <si>
-    <t>Elément_posologie/Quantité/Unité</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.doseQuantity.code</t>
-  </si>
-  <si>
-    <t>Dosage.doseAndRate.doseQuantity.unité</t>
+    <t>Elément_posologie/Fréquence_structurée/Frq_libellé</t>
+  </si>
+  <si>
+    <t>source-is-narrower-than-target</t>
+  </si>
+  <si>
+    <t>Dosage.text</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Int_temps_év_début</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.timeOfDay</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evénement_début</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_activité/Evt_activité_code</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.when</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.offset</t>
   </si>
 </sst>
 </file>
@@ -445,6 +491,592 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
@@ -495,6 +1127,131 @@
         <v>33</v>
       </c>
       <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -776,7 +1533,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -838,139 +1595,126 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -979,7 +1723,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1021,38 +1765,68 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -27,12 +27,62 @@
     <sheet name="Mapping Table 17" r:id="rId21" sheetId="19"/>
     <sheet name="Mapping Table 18" r:id="rId22" sheetId="20"/>
     <sheet name="Mapping Table 19" r:id="rId23" sheetId="21"/>
+    <sheet name="Mapping Table 20" r:id="rId24" sheetId="22"/>
+    <sheet name="Mapping Table 21" r:id="rId25" sheetId="23"/>
+    <sheet name="Mapping Table 22" r:id="rId26" sheetId="24"/>
+    <sheet name="Mapping Table 23" r:id="rId27" sheetId="25"/>
+    <sheet name="Mapping Table 24" r:id="rId28" sheetId="26"/>
+    <sheet name="Mapping Table 25" r:id="rId29" sheetId="27"/>
+    <sheet name="Mapping Table 26" r:id="rId30" sheetId="28"/>
+    <sheet name="Mapping Table 27" r:id="rId31" sheetId="29"/>
+    <sheet name="Mapping Table 28" r:id="rId32" sheetId="30"/>
+    <sheet name="Mapping Table 29" r:id="rId33" sheetId="31"/>
+    <sheet name="Mapping Table 30" r:id="rId34" sheetId="32"/>
+    <sheet name="Mapping Table 31" r:id="rId35" sheetId="33"/>
+    <sheet name="Mapping Table 32" r:id="rId36" sheetId="34"/>
+    <sheet name="Mapping Table 33" r:id="rId37" sheetId="35"/>
+    <sheet name="Mapping Table 34" r:id="rId38" sheetId="36"/>
+    <sheet name="Mapping Table 35" r:id="rId39" sheetId="37"/>
+    <sheet name="Mapping Table 36" r:id="rId40" sheetId="38"/>
+    <sheet name="Mapping Table 37" r:id="rId41" sheetId="39"/>
+    <sheet name="Mapping Table 38" r:id="rId42" sheetId="40"/>
+    <sheet name="Mapping Table 39" r:id="rId43" sheetId="41"/>
+    <sheet name="Mapping Table 40" r:id="rId44" sheetId="42"/>
+    <sheet name="Mapping Table 41" r:id="rId45" sheetId="43"/>
+    <sheet name="Mapping Table 42" r:id="rId46" sheetId="44"/>
+    <sheet name="Mapping Table 43" r:id="rId47" sheetId="45"/>
+    <sheet name="Mapping Table 44" r:id="rId48" sheetId="46"/>
+    <sheet name="Mapping Table 45" r:id="rId49" sheetId="47"/>
+    <sheet name="Mapping Table 46" r:id="rId50" sheetId="48"/>
+    <sheet name="Mapping Table 47" r:id="rId51" sheetId="49"/>
+    <sheet name="Mapping Table 48" r:id="rId52" sheetId="50"/>
+    <sheet name="Mapping Table 49" r:id="rId53" sheetId="51"/>
+    <sheet name="Mapping Table 50" r:id="rId54" sheetId="52"/>
+    <sheet name="Mapping Table 51" r:id="rId55" sheetId="53"/>
+    <sheet name="Mapping Table 52" r:id="rId56" sheetId="54"/>
+    <sheet name="Mapping Table 53" r:id="rId57" sheetId="55"/>
+    <sheet name="Mapping Table 54" r:id="rId58" sheetId="56"/>
+    <sheet name="Mapping Table 55" r:id="rId59" sheetId="57"/>
+    <sheet name="Mapping Table 56" r:id="rId60" sheetId="58"/>
+    <sheet name="Mapping Table 57" r:id="rId61" sheetId="59"/>
+    <sheet name="Mapping Table 58" r:id="rId62" sheetId="60"/>
+    <sheet name="Mapping Table 59" r:id="rId63" sheetId="61"/>
+    <sheet name="Mapping Table 60" r:id="rId64" sheetId="62"/>
+    <sheet name="Mapping Table 61" r:id="rId65" sheetId="63"/>
+    <sheet name="Mapping Table 62" r:id="rId66" sheetId="64"/>
+    <sheet name="Mapping Table 63" r:id="rId67" sheetId="65"/>
+    <sheet name="Mapping Table 64" r:id="rId68" sheetId="66"/>
+    <sheet name="Mapping Table 65" r:id="rId69" sheetId="67"/>
+    <sheet name="Mapping Table 66" r:id="rId70" sheetId="68"/>
+    <sheet name="Mapping Table 67" r:id="rId71" sheetId="69"/>
+    <sheet name="Mapping Table 68" r:id="rId72" sheetId="70"/>
+    <sheet name="Mapping Table 69" r:id="rId73" sheetId="71"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="82">
   <si>
     <t>Property</t>
   </si>
@@ -76,7 +126,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-31T09:40:44+00:00</t>
+    <t>2025-01-02T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -221,6 +271,63 @@
   </si>
   <si>
     <t>Dosage.timing.repeat.offset</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.extension($fr-additional-when-values).code</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_explicite/Evt_horaireMin</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_explicite/Evt_horaireMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.boundsDuration.value</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_nommée</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Durée/Nombre</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Durée/Unité</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Quantité/Nombre</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.doseQuantity.value</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Quantité/Unité</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.doseQuantity.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.doseQuantity.unit</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Débit/Nombre</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.value</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Débit/Unité</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.unit</t>
   </si>
 </sst>
 </file>
@@ -1258,6 +1365,519 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
@@ -1334,6 +1954,618 @@
         <v>37</v>
       </c>
       <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1462,6 +2694,618 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E4"/>
@@ -1531,6 +3375,618 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E9"/>
@@ -1665,6 +4121,592 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
@@ -1721,6 +4763,170 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="84">
   <si>
     <t>Property</t>
   </si>
@@ -126,7 +126,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:06:50+00:00</t>
+    <t>2025-01-02T08:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_nommée</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_clinique</t>
+  </si>
+  <si>
+    <t>not-related-to</t>
   </si>
   <si>
     <t>Elément_posologie/Durée/Nombre</t>
@@ -4369,6 +4375,60 @@
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4410,7 +4470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4453,7 +4513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4496,7 +4556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4539,7 +4599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4582,49 +4642,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
@@ -4665,40 +4682,40 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4803,40 +4820,40 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4885,40 +4902,40 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2"/>
     </row>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="88">
   <si>
     <t>Property</t>
   </si>
@@ -126,7 +126,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:36:24+00:00</t>
+    <t>2025-01-02T08:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>not-related-to</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Type_événement2_début</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Type_événement_fin</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Type_événement2_fin</t>
   </si>
   <si>
     <t>Elément_posologie/Durée/Nombre</t>
@@ -4429,41 +4441,52 @@
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4472,41 +4495,52 @@
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4515,41 +4549,52 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4558,41 +4603,52 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4601,41 +4657,52 @@
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4643,144 +4710,6 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -4850,93 +4779,231 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
   </sheetData>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -77,12 +77,15 @@
     <sheet name="Mapping Table 67" r:id="rId71" sheetId="69"/>
     <sheet name="Mapping Table 68" r:id="rId72" sheetId="70"/>
     <sheet name="Mapping Table 69" r:id="rId73" sheetId="71"/>
+    <sheet name="Mapping Table 70" r:id="rId74" sheetId="72"/>
+    <sheet name="Mapping Table 71" r:id="rId75" sheetId="73"/>
+    <sheet name="Mapping Table 72" r:id="rId76" sheetId="74"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="91">
   <si>
     <t>Property</t>
   </si>
@@ -126,7 +129,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:46:33+00:00</t>
+    <t>2025-01-02T15:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -294,7 +297,16 @@
     <t>not-related-to</t>
   </si>
   <si>
-    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré</t>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_clinique/Evt_clinique_code</t>
+  </si>
+  <si>
+    <t>Dosage.asNeededBoolean</t>
+  </si>
+  <si>
+    <t>Dosage.asNeededCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_param_poso_cond</t>
   </si>
   <si>
     <t>Elément_posologie/Type_événement2_début</t>
@@ -4479,21 +4491,79 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>70</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -4537,63 +4607,11 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -4603,327 +4621,442 @@
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2"/>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4931,6 +5064,60 @@
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4969,41 +5156,205 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>78</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>83</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>87</v>
       </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
   </sheetData>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -79,13 +79,12 @@
     <sheet name="Mapping Table 69" r:id="rId73" sheetId="71"/>
     <sheet name="Mapping Table 70" r:id="rId74" sheetId="72"/>
     <sheet name="Mapping Table 71" r:id="rId75" sheetId="73"/>
-    <sheet name="Mapping Table 72" r:id="rId76" sheetId="74"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="91">
   <si>
     <t>Property</t>
   </si>
@@ -129,7 +128,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:15:39+00:00</t>
+    <t>2025-01-03T16:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +275,10 @@
     <t>Dosage.timing.repeat.offset</t>
   </si>
   <si>
-    <t>Dosage.timing.repeat.extension($fr-additional-when-values).code</t>
+    <t>Dosage.timing.repeat.extension($fr-additional-when-values).valueCode</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.extension($fr-additional-when-values).ValueCode</t>
   </si>
   <si>
     <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_explicite/Evt_horaireMin</t>
@@ -291,22 +293,19 @@
     <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_nommée</t>
   </si>
   <si>
-    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_clinique</t>
+    <t>Dosage.asNeededCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_clinique/Evt_clinique_code</t>
+  </si>
+  <si>
+    <t>Dosage.asNeededBoolean</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_param_poso_cond</t>
   </si>
   <si>
     <t>not-related-to</t>
-  </si>
-  <si>
-    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_clinique/Evt_clinique_code</t>
-  </si>
-  <si>
-    <t>Dosage.asNeededBoolean</t>
-  </si>
-  <si>
-    <t>Dosage.asNeededCodeableConcept.text</t>
-  </si>
-  <si>
-    <t>Elément_posologie/Evt_structuré_début/Evénement_param_poso_cond</t>
   </si>
   <si>
     <t>Elément_posologie/Type_événement2_début</t>
@@ -3870,7 +3869,7 @@
         <v>39</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4260,7 +4259,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -4273,14 +4272,14 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4329,7 +4328,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -4342,7 +4341,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -4355,7 +4354,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -4368,7 +4367,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -4381,7 +4380,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -4437,13 +4436,15 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
@@ -4491,14 +4492,14 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4554,7 +4555,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4565,7 +4566,7 @@
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4610,63 +4611,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4679,7 +4624,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4692,7 +4637,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -4705,7 +4650,7 @@
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4718,7 +4663,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4731,7 +4676,7 @@
         <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -4744,7 +4689,7 @@
         <v>32</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4757,7 +4702,7 @@
         <v>32</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -4770,7 +4715,7 @@
         <v>32</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -4783,7 +4728,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -4796,7 +4741,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -4809,7 +4754,7 @@
         <v>32</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -4822,7 +4767,7 @@
         <v>32</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -4835,9 +4780,63 @@
         <v>32</v>
       </c>
       <c r="D16" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4884,12 +4883,12 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>69</v>
-      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
@@ -4938,11 +4937,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -5048,11 +5047,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>69</v>
+        <v>76</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -5063,60 +5062,6 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -5198,9 +5143,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5268,19 +5213,32 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D6" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="E5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
   <sheetViews>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -128,7 +128,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -128,7 +128,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -128,7 +128,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -128,7 +128,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -128,7 +128,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -128,7 +128,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -28,12 +28,45 @@
     <sheet name="Mapping Table 18" r:id="rId22" sheetId="20"/>
     <sheet name="Mapping Table 19" r:id="rId23" sheetId="21"/>
     <sheet name="Mapping Table 20" r:id="rId24" sheetId="22"/>
+    <sheet name="Mapping Table 21" r:id="rId25" sheetId="23"/>
+    <sheet name="Mapping Table 22" r:id="rId26" sheetId="24"/>
+    <sheet name="Mapping Table 23" r:id="rId27" sheetId="25"/>
+    <sheet name="Mapping Table 24" r:id="rId28" sheetId="26"/>
+    <sheet name="Mapping Table 25" r:id="rId29" sheetId="27"/>
+    <sheet name="Mapping Table 26" r:id="rId30" sheetId="28"/>
+    <sheet name="Mapping Table 27" r:id="rId31" sheetId="29"/>
+    <sheet name="Mapping Table 28" r:id="rId32" sheetId="30"/>
+    <sheet name="Mapping Table 29" r:id="rId33" sheetId="31"/>
+    <sheet name="Mapping Table 30" r:id="rId34" sheetId="32"/>
+    <sheet name="Mapping Table 31" r:id="rId35" sheetId="33"/>
+    <sheet name="Mapping Table 32" r:id="rId36" sheetId="34"/>
+    <sheet name="Mapping Table 33" r:id="rId37" sheetId="35"/>
+    <sheet name="Mapping Table 34" r:id="rId38" sheetId="36"/>
+    <sheet name="Mapping Table 35" r:id="rId39" sheetId="37"/>
+    <sheet name="Mapping Table 36" r:id="rId40" sheetId="38"/>
+    <sheet name="Mapping Table 37" r:id="rId41" sheetId="39"/>
+    <sheet name="Mapping Table 38" r:id="rId42" sheetId="40"/>
+    <sheet name="Mapping Table 39" r:id="rId43" sheetId="41"/>
+    <sheet name="Mapping Table 40" r:id="rId44" sheetId="42"/>
+    <sheet name="Mapping Table 41" r:id="rId45" sheetId="43"/>
+    <sheet name="Mapping Table 42" r:id="rId46" sheetId="44"/>
+    <sheet name="Mapping Table 43" r:id="rId47" sheetId="45"/>
+    <sheet name="Mapping Table 44" r:id="rId48" sheetId="46"/>
+    <sheet name="Mapping Table 45" r:id="rId49" sheetId="47"/>
+    <sheet name="Mapping Table 46" r:id="rId50" sheetId="48"/>
+    <sheet name="Mapping Table 47" r:id="rId51" sheetId="49"/>
+    <sheet name="Mapping Table 48" r:id="rId52" sheetId="50"/>
+    <sheet name="Mapping Table 49" r:id="rId53" sheetId="51"/>
+    <sheet name="Mapping Table 50" r:id="rId54" sheetId="52"/>
+    <sheet name="Mapping Table 51" r:id="rId55" sheetId="53"/>
+    <sheet name="Mapping Table 52" r:id="rId56" sheetId="54"/>
+    <sheet name="Mapping Table 53" r:id="rId57" sheetId="55"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="64">
   <si>
     <t>Property</t>
   </si>
@@ -77,7 +110,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1331,6 +1364,450 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E5"/>
@@ -1413,6 +1890,618 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E9"/>
@@ -1547,6 +2636,618 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E4"/>
@@ -1616,6 +3317,368 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E9"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -61,12 +61,34 @@
     <sheet name="Mapping Table 51" r:id="rId55" sheetId="53"/>
     <sheet name="Mapping Table 52" r:id="rId56" sheetId="54"/>
     <sheet name="Mapping Table 53" r:id="rId57" sheetId="55"/>
+    <sheet name="Mapping Table 54" r:id="rId58" sheetId="56"/>
+    <sheet name="Mapping Table 55" r:id="rId59" sheetId="57"/>
+    <sheet name="Mapping Table 56" r:id="rId60" sheetId="58"/>
+    <sheet name="Mapping Table 57" r:id="rId61" sheetId="59"/>
+    <sheet name="Mapping Table 58" r:id="rId62" sheetId="60"/>
+    <sheet name="Mapping Table 59" r:id="rId63" sheetId="61"/>
+    <sheet name="Mapping Table 60" r:id="rId64" sheetId="62"/>
+    <sheet name="Mapping Table 61" r:id="rId65" sheetId="63"/>
+    <sheet name="Mapping Table 62" r:id="rId66" sheetId="64"/>
+    <sheet name="Mapping Table 63" r:id="rId67" sheetId="65"/>
+    <sheet name="Mapping Table 64" r:id="rId68" sheetId="66"/>
+    <sheet name="Mapping Table 65" r:id="rId69" sheetId="67"/>
+    <sheet name="Mapping Table 66" r:id="rId70" sheetId="68"/>
+    <sheet name="Mapping Table 67" r:id="rId71" sheetId="69"/>
+    <sheet name="Mapping Table 68" r:id="rId72" sheetId="70"/>
+    <sheet name="Mapping Table 69" r:id="rId73" sheetId="71"/>
+    <sheet name="Mapping Table 70" r:id="rId74" sheetId="72"/>
+    <sheet name="Mapping Table 71" r:id="rId75" sheetId="73"/>
+    <sheet name="Mapping Table 72" r:id="rId76" sheetId="74"/>
+    <sheet name="Mapping Table 73" r:id="rId77" sheetId="75"/>
+    <sheet name="Mapping Table 74" r:id="rId78" sheetId="76"/>
+    <sheet name="Mapping Table 75" r:id="rId79" sheetId="77"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -110,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,6 +280,111 @@
   </si>
   <si>
     <t>Dosage.timing.repeat.extension($fr-additional-when-values).valueCode</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.extension($fr-additional-when-values).ValueCode</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_explicite/Evt_horaireMin</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_explicite/Evt_horaireMax</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.boundsDuration.value</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_objet/Evt_période_nommée</t>
+  </si>
+  <si>
+    <t>Dosage.asNeededCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_structuré/Evt_clinique/Evt_clinique_code</t>
+  </si>
+  <si>
+    <t>Dosage.asNeededBoolean</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Evt_structuré_début/Evénement_param_poso_cond</t>
+  </si>
+  <si>
+    <t>not-related-to</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Type_événement2_début</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Durée/Nombre</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.duration</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Durée/Unité</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.durationUnit</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Quantité/Nombre</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.doseQuantity.value</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerAdministration.value</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerPeriod.numerator.value</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerLifetime.value</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Quantité/Unité</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.doseQuantity.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.doseQuantity.unit</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerAdministration.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerAdministration.unit</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerPeriod.numerator.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerPeriod.numerator.unit</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerLifetime.numerator.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.maxDosePerLifetime.numerator.unit</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Débit/Nombre</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.value</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Débit/Unité</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.code</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.rateQuantity.unit</t>
   </si>
 </sst>
 </file>
@@ -3679,6 +3806,256 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E9"/>
@@ -3813,6 +4190,796 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>
@@ -3869,6 +5036,996 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E3"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:51:28+00:00</t>
+    <t>2025-04-09T16:24:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4261,7 +4261,7 @@
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4307,363 +4307,385 @@
       </c>
       <c r="D3" t="s" s="2">
         <v>58</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>70</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>30</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s" s="2">
         <v>69</v>
       </c>
       <c r="E4" s="2"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-09T16:24:06+00:00</t>
+    <t>2025-04-10T12:28:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T12:28:22+00:00</t>
+    <t>2025-04-10T13:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:04:19+00:00</t>
+    <t>2025-04-10T13:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:16:38+00:00</t>
+    <t>2025-04-10T13:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-10T13:34:50+00:00</t>
+    <t>2025-04-11T07:36:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:36:18+00:00</t>
+    <t>2025-04-12T14:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5747,7 +5747,7 @@
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5841,10 +5841,10 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -5854,10 +5854,10 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -5880,10 +5880,10 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -5893,10 +5893,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -5919,25 +5919,12 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-12T14:29:05+00:00</t>
+    <t>2025-04-14T11:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5254,7 +5254,7 @@
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5296,7 +5296,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>81</v>
@@ -5312,7 +5312,7 @@
         <v>39</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -5351,7 +5351,7 @@
         <v>39</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -5364,7 +5364,7 @@
         <v>39</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -5377,9 +5377,22 @@
         <v>39</v>
       </c>
       <c r="D9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E10" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T11:52:10+00:00</t>
+    <t>2025-04-14T12:50:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5522,7 +5522,7 @@
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>86</v>
@@ -5590,10 +5590,10 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -5603,10 +5603,10 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -5645,7 +5645,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -5668,10 +5668,10 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -5681,10 +5681,10 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -5707,10 +5707,10 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="2"/>
     </row>
@@ -5720,10 +5720,10 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -5746,12 +5746,25 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D18" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5946,7 +5959,7 @@
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5988,7 +6001,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>95</v>
@@ -6001,9 +6014,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
@@ -6019,15 +6034,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
@@ -6039,9 +6052,35 @@
         <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T12:50:20+00:00</t>
+    <t>2025-04-14T13:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:17:43+00:00</t>
+    <t>2025-04-14T13:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:53:40+00:00</t>
+    <t>2025-04-14T14:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T14:45:12+00:00</t>
+    <t>2025-04-14T15:18:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:18:15+00:00</t>
+    <t>2025-04-14T15:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T15:39:56+00:00</t>
+    <t>2025-04-14T16:50:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T16:50:44+00:00</t>
+    <t>2025-04-14T17:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T17:04:46+00:00</t>
+    <t>2025-04-15T06:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T06:58:45+00:00</t>
+    <t>2025-04-15T07:12:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:12:06+00:00</t>
+    <t>2025-04-15T07:37:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:37:51+00:00</t>
+    <t>2025-04-15T07:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T07:52:12+00:00</t>
+    <t>2025-04-15T15:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-15T15:09:09+00:00</t>
+    <t>2025-04-16T14:17:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-16T14:17:39+00:00</t>
+    <t>2025-04-24T15:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-24T15:43:49+00:00</t>
+    <t>2025-04-25T13:21:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/FinalisationMappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -132,7 +132,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T13:21:13+00:00</t>
+    <t>2025-04-30T11:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
